--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.303830666666668</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N2">
-        <v>24.911492</v>
+        <v>43.518557</v>
       </c>
       <c r="O2">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P2">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q2">
-        <v>887.5017104841498</v>
+        <v>3067.499296812311</v>
       </c>
       <c r="R2">
-        <v>7987.515394357349</v>
+        <v>27607.4936713108</v>
       </c>
       <c r="S2">
-        <v>0.02093991905674155</v>
+        <v>0.05941533115639799</v>
       </c>
       <c r="T2">
-        <v>0.02093991905674155</v>
+        <v>0.05941533115639799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>93.63996499999999</v>
       </c>
       <c r="O3">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P3">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q3">
-        <v>3336.035798545342</v>
+        <v>6600.414779171777</v>
       </c>
       <c r="R3">
-        <v>30024.32218690808</v>
+        <v>59403.733012546</v>
       </c>
       <c r="S3">
-        <v>0.07871119431851417</v>
+        <v>0.1278454506188824</v>
       </c>
       <c r="T3">
-        <v>0.0787111943185142</v>
+        <v>0.1278454506188824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,43 +685,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.18825766666667</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N4">
-        <v>60.564773</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O4">
-        <v>0.3374260116946116</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P4">
-        <v>0.3374260116946115</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q4">
-        <v>2157.692507240604</v>
+        <v>2831.564901198223</v>
       </c>
       <c r="R4">
-        <v>19419.23256516544</v>
+        <v>25484.08411078401</v>
       </c>
       <c r="S4">
-        <v>0.0509090922498711</v>
+        <v>0.05484544575783799</v>
       </c>
       <c r="T4">
-        <v>0.05090909224987111</v>
+        <v>0.05484544575783798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>77.232923</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>231.698769</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.124766</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N5">
-        <v>0.374298</v>
+        <v>43.518557</v>
       </c>
       <c r="O5">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P5">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q5">
-        <v>13.33481411835133</v>
+        <v>1120.35512061737</v>
       </c>
       <c r="R5">
-        <v>120.013327065162</v>
+        <v>10083.19608555633</v>
       </c>
       <c r="S5">
-        <v>0.0003146246649177114</v>
+        <v>0.02170050065648645</v>
       </c>
       <c r="T5">
-        <v>0.0003146246649177115</v>
+        <v>0.02170050065648645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.303830666666668</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N6">
-        <v>24.911492</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O6">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P6">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q6">
-        <v>641.3291144837054</v>
+        <v>2410.696068855898</v>
       </c>
       <c r="R6">
-        <v>5771.962030353348</v>
+        <v>21696.26461970308</v>
       </c>
       <c r="S6">
-        <v>0.01513166632512126</v>
+        <v>0.04669350874744922</v>
       </c>
       <c r="T6">
-        <v>0.01513166632512126</v>
+        <v>0.04669350874744922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.21332166666666</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N7">
-        <v>93.63996499999999</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O7">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P7">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q7">
-        <v>2410.696068855898</v>
+        <v>1034.183851228427</v>
       </c>
       <c r="R7">
-        <v>21696.26461970308</v>
+        <v>9307.654661055842</v>
       </c>
       <c r="S7">
-        <v>0.05687851635205281</v>
+        <v>0.02003142301000361</v>
       </c>
       <c r="T7">
-        <v>0.05687851635205282</v>
+        <v>0.02003142301000361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.232923</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H8">
-        <v>231.698769</v>
+        <v>522.932113</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.18825766666667</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N8">
-        <v>60.564773</v>
+        <v>43.518557</v>
       </c>
       <c r="O8">
-        <v>0.3374260116946116</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P8">
-        <v>0.3374260116946115</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q8">
-        <v>1559.198149873826</v>
+        <v>2528.583440746771</v>
       </c>
       <c r="R8">
-        <v>14032.78334886444</v>
+        <v>22757.25096672094</v>
       </c>
       <c r="S8">
-        <v>0.03678807901560906</v>
+        <v>0.04897690527416805</v>
       </c>
       <c r="T8">
-        <v>0.03678807901560906</v>
+        <v>0.04897690527416804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.232923</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H9">
-        <v>231.698769</v>
+        <v>522.932113</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.124766</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N9">
-        <v>0.374298</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O9">
-        <v>0.00208533566740636</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P9">
-        <v>0.00208533566740636</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q9">
-        <v>9.636042871018001</v>
+        <v>5440.816084299559</v>
       </c>
       <c r="R9">
-        <v>86.72438583916201</v>
+        <v>48967.34475869604</v>
       </c>
       <c r="S9">
-        <v>0.0002273550071653771</v>
+        <v>0.1053848291817537</v>
       </c>
       <c r="T9">
-        <v>0.0002273550071653772</v>
+        <v>0.1053848291817537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.303830666666668</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N10">
-        <v>24.911492</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O10">
-        <v>0.138790009019306</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P10">
-        <v>0.138790009019306</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q10">
-        <v>1134.937158588268</v>
+        <v>2334.099351875965</v>
       </c>
       <c r="R10">
-        <v>10214.43442729441</v>
+        <v>21006.89416688368</v>
       </c>
       <c r="S10">
-        <v>0.026777967810746</v>
+        <v>0.04520988353208733</v>
       </c>
       <c r="T10">
-        <v>0.02677796781074601</v>
+        <v>0.04520988353208732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H11">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I11">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J11">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.21332166666666</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N11">
-        <v>93.63996499999999</v>
+        <v>43.518557</v>
       </c>
       <c r="O11">
-        <v>0.521698643618676</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P11">
-        <v>0.521698643618676</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q11">
-        <v>4266.122471002735</v>
+        <v>413.9303572749405</v>
       </c>
       <c r="R11">
-        <v>38395.10223902461</v>
+        <v>3725.373215474465</v>
       </c>
       <c r="S11">
-        <v>0.1006558727421618</v>
+        <v>0.008017543566752943</v>
       </c>
       <c r="T11">
-        <v>0.1006558727421618</v>
+        <v>0.008017543566752943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.18825766666667</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N12">
-        <v>60.564773</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O12">
-        <v>0.3374260116946116</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P12">
-        <v>0.3374260116946115</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q12">
-        <v>2759.257108292167</v>
+        <v>890.6642784057136</v>
       </c>
       <c r="R12">
-        <v>24833.3139746295</v>
+        <v>8015.978505651423</v>
       </c>
       <c r="S12">
-        <v>0.06510254551831494</v>
+        <v>0.01725154855150001</v>
       </c>
       <c r="T12">
-        <v>0.06510254551831496</v>
+        <v>0.01725154855150001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.124766</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N13">
-        <v>0.374298</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O13">
-        <v>0.00208533566740636</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P13">
-        <v>0.00208533566740636</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q13">
-        <v>17.052559862142</v>
+        <v>382.0932159359111</v>
       </c>
       <c r="R13">
-        <v>153.473038759278</v>
+        <v>3438.8389434232</v>
       </c>
       <c r="S13">
-        <v>0.0004023420112944904</v>
+        <v>0.007400880248297676</v>
       </c>
       <c r="T13">
-        <v>0.0004023420112944905</v>
+        <v>0.007400880248297675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H14">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I14">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J14">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.303830666666668</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N14">
-        <v>24.911492</v>
+        <v>43.518557</v>
       </c>
       <c r="O14">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P14">
-        <v>0.138790009019306</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q14">
-        <v>378.245003378173</v>
+        <v>3341.195383479524</v>
       </c>
       <c r="R14">
-        <v>3404.205030403557</v>
+        <v>30070.75845131571</v>
       </c>
       <c r="S14">
-        <v>0.008924399424577029</v>
+        <v>0.06471663428707565</v>
       </c>
       <c r="T14">
-        <v>0.008924399424577029</v>
+        <v>0.06471663428707565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H15">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I15">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J15">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>93.63996499999999</v>
       </c>
       <c r="O15">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P15">
-        <v>0.521698643618676</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q15">
-        <v>1421.787537966694</v>
+        <v>7189.333478294882</v>
       </c>
       <c r="R15">
-        <v>12796.08784170024</v>
+        <v>64704.00130465395</v>
       </c>
       <c r="S15">
-        <v>0.03354598149975974</v>
+        <v>0.1392523968466961</v>
       </c>
       <c r="T15">
-        <v>0.03354598149975975</v>
+        <v>0.1392523968466961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.55066433333334</v>
+        <v>230.32901</v>
       </c>
       <c r="H16">
-        <v>136.651993</v>
+        <v>690.98703</v>
       </c>
       <c r="I16">
-        <v>0.06430145431675577</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J16">
-        <v>0.06430145431675578</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.18825766666667</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N16">
-        <v>60.564773</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O16">
-        <v>0.3374260116946116</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P16">
-        <v>0.3374260116946115</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q16">
-        <v>919.5885484491765</v>
+        <v>3084.209859717867</v>
       </c>
       <c r="R16">
-        <v>8276.296936042589</v>
+        <v>27757.88873746081</v>
       </c>
       <c r="S16">
-        <v>0.02169698327626616</v>
+        <v>0.05973900315523926</v>
       </c>
       <c r="T16">
-        <v>0.02169698327626617</v>
+        <v>0.05973900315523926</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>454.666397</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.124766</v>
+        <v>14.50618566666667</v>
       </c>
       <c r="N17">
-        <v>0.374298</v>
+        <v>43.518557</v>
       </c>
       <c r="O17">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="P17">
-        <v>0.00208533566740636</v>
+        <v>0.2454101728889664</v>
       </c>
       <c r="Q17">
-        <v>5.683174186212668</v>
+        <v>2198.491723758792</v>
       </c>
       <c r="R17">
-        <v>51.148567675914</v>
+        <v>19786.42551382913</v>
       </c>
       <c r="S17">
-        <v>0.0001340901161528315</v>
+        <v>0.04258325794808529</v>
       </c>
       <c r="T17">
-        <v>0.0001340901161528315</v>
+        <v>0.04258325794808528</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>198.5982106666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H18">
-        <v>595.794632</v>
+        <v>454.666397</v>
       </c>
       <c r="I18">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J18">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.303830666666668</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N18">
-        <v>24.911492</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O18">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="P18">
-        <v>0.138790009019306</v>
+        <v>0.5280551926380913</v>
       </c>
       <c r="Q18">
-        <v>1649.125912078994</v>
+        <v>4730.549500195122</v>
       </c>
       <c r="R18">
-        <v>14842.13320871095</v>
+        <v>42574.9455017561</v>
       </c>
       <c r="S18">
-        <v>0.03890985527731661</v>
+        <v>0.09162745869180997</v>
       </c>
       <c r="T18">
-        <v>0.03890985527731661</v>
+        <v>0.09162745869180997</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>198.5982106666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H19">
-        <v>595.794632</v>
+        <v>454.666397</v>
       </c>
       <c r="I19">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J19">
-        <v>0.2803505493821544</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.21332166666666</v>
+        <v>13.39045333333334</v>
       </c>
       <c r="N19">
-        <v>93.63996499999999</v>
+        <v>40.17136000000001</v>
       </c>
       <c r="O19">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="P19">
-        <v>0.521698643618676</v>
+        <v>0.2265346344729424</v>
       </c>
       <c r="Q19">
-        <v>6198.909831963097</v>
+        <v>2029.396390421103</v>
       </c>
       <c r="R19">
-        <v>55790.18848766787</v>
+        <v>18264.56751378992</v>
       </c>
       <c r="S19">
-        <v>0.1462585013504206</v>
+        <v>0.03930799876947656</v>
       </c>
       <c r="T19">
-        <v>0.1462585013504206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>198.5982106666667</v>
-      </c>
-      <c r="H20">
-        <v>595.794632</v>
-      </c>
-      <c r="I20">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="J20">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>20.18825766666667</v>
-      </c>
-      <c r="N20">
-        <v>60.564773</v>
-      </c>
-      <c r="O20">
-        <v>0.3374260116946116</v>
-      </c>
-      <c r="P20">
-        <v>0.3374260116946115</v>
-      </c>
-      <c r="Q20">
-        <v>4009.351849077615</v>
-      </c>
-      <c r="R20">
-        <v>36084.16664169853</v>
-      </c>
-      <c r="S20">
-        <v>0.09459756775441359</v>
-      </c>
-      <c r="T20">
-        <v>0.09459756775441359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>198.5982106666667</v>
-      </c>
-      <c r="H21">
-        <v>595.794632</v>
-      </c>
-      <c r="I21">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="J21">
-        <v>0.2803505493821544</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.124766</v>
-      </c>
-      <c r="N21">
-        <v>0.374298</v>
-      </c>
-      <c r="O21">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="P21">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="Q21">
-        <v>24.77830435203733</v>
-      </c>
-      <c r="R21">
-        <v>223.004739168336</v>
-      </c>
-      <c r="S21">
-        <v>0.0005846250000035747</v>
-      </c>
-      <c r="T21">
-        <v>0.0005846250000035748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H22">
-        <v>430.367156</v>
-      </c>
-      <c r="I22">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J22">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.303830666666668</v>
-      </c>
-      <c r="N22">
-        <v>24.911492</v>
-      </c>
-      <c r="O22">
-        <v>0.138790009019306</v>
-      </c>
-      <c r="P22">
-        <v>0.138790009019306</v>
-      </c>
-      <c r="Q22">
-        <v>1191.231995972973</v>
-      </c>
-      <c r="R22">
-        <v>10721.08796375675</v>
-      </c>
-      <c r="S22">
-        <v>0.02810620112480359</v>
-      </c>
-      <c r="T22">
-        <v>0.02810620112480359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H23">
-        <v>430.367156</v>
-      </c>
-      <c r="I23">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J23">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>31.21332166666666</v>
-      </c>
-      <c r="N23">
-        <v>93.63996499999999</v>
-      </c>
-      <c r="O23">
-        <v>0.521698643618676</v>
-      </c>
-      <c r="P23">
-        <v>0.521698643618676</v>
-      </c>
-      <c r="Q23">
-        <v>4477.729491665504</v>
-      </c>
-      <c r="R23">
-        <v>40299.56542498953</v>
-      </c>
-      <c r="S23">
-        <v>0.1056485773557669</v>
-      </c>
-      <c r="T23">
-        <v>0.1056485773557669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H24">
-        <v>430.367156</v>
-      </c>
-      <c r="I24">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J24">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>20.18825766666667</v>
-      </c>
-      <c r="N24">
-        <v>60.564773</v>
-      </c>
-      <c r="O24">
-        <v>0.3374260116946116</v>
-      </c>
-      <c r="P24">
-        <v>0.3374260116946115</v>
-      </c>
-      <c r="Q24">
-        <v>2896.12101219951</v>
-      </c>
-      <c r="R24">
-        <v>26065.08910979558</v>
-      </c>
-      <c r="S24">
-        <v>0.06833174388013667</v>
-      </c>
-      <c r="T24">
-        <v>0.06833174388013669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H25">
-        <v>430.367156</v>
-      </c>
-      <c r="I25">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J25">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.124766</v>
-      </c>
-      <c r="N25">
-        <v>0.374298</v>
-      </c>
-      <c r="O25">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="P25">
-        <v>0.00208533566740636</v>
-      </c>
-      <c r="Q25">
-        <v>17.89839619516533</v>
-      </c>
-      <c r="R25">
-        <v>161.085565756488</v>
-      </c>
-      <c r="S25">
-        <v>0.0004222988678723752</v>
-      </c>
-      <c r="T25">
-        <v>0.0004222988678723754</v>
+        <v>0.03930799876947656</v>
       </c>
     </row>
   </sheetData>
